--- a/form_filler/form_info.xlsx
+++ b/form_filler/form_info.xlsx
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CGm</t>
+          <t>PbiE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -470,17 +470,17 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XLQremavoq</t>
+          <t>SLgYHAD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>nPsEQNzjU</t>
+          <t>YwDm</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -502,7 +502,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -512,15 +512,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>rzqqzwl</t>
+          <t>YDpsXAFY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -530,29 +530,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GUUiULOGB</t>
+          <t>cezWpOUjV</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MfHJty</t>
+          <t>KWTsnXNAYR</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -560,17 +560,17 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>YPqCn</t>
+          <t>OPIsfjvPu</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>hJAEsgS</t>
+          <t>RuKT</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -602,43 +602,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>wUINgFWHwX</t>
+          <t>NmO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vgBQyEHCv</t>
+          <t>XAEGaI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>nCEO</t>
+          <t>GGy</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -646,7 +646,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -656,29 +656,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>sFJE</t>
+          <t>JdJhFG</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cqEq</t>
+          <t>KhfTuFSCy</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>XQwhmzMCa</t>
+          <t>dslOZgSIC</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -704,17 +704,17 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zJAONGwA</t>
+          <t>TcGutf</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -722,35 +722,35 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>pkYvwbMLl</t>
+          <t>mPHbK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Vnnbcyim</t>
+          <t>SmlG</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -758,17 +758,17 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vLT</t>
+          <t>ByjUbKva</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -776,35 +776,35 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GHTOVpvqyS</t>
+          <t>lhecM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ySGqpHtZX</t>
+          <t>ymETAov</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -812,17 +812,17 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>shtutXQaoR</t>
+          <t>WNHVO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -830,35 +830,35 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RFczCb</t>
+          <t>xCZWqyuRvo</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hiVOd</t>
+          <t>dFiGUDa</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -866,17 +866,17 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>figzuj</t>
+          <t>YDkikC</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>qoxuqWRZK</t>
+          <t>QzrIhwn</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -908,11 +908,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SoPVs</t>
+          <t>aYXglHRP</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -920,53 +920,53 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>KjJpe</t>
+          <t>IZWOfAK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NNlhbPBBF</t>
+          <t>tvkCzwe</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pKGhjTt</t>
+          <t>iZsGtDN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -980,11 +980,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>xqpU</t>
+          <t>juyN</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -992,21 +992,21 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>bdhxvaj</t>
+          <t>TJEIZawOfb</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1016,29 +1016,29 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Yfduk</t>
+          <t>JCppoqay</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tjeMJzPv</t>
+          <t>QAiBcaVzRh</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1046,35 +1046,35 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CfF</t>
+          <t>GdRfPOv</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VNaF</t>
+          <t>jQZncXpQsE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1082,17 +1082,17 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JbNyW</t>
+          <t>IQtDOh</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5</v>
+        <v>71</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1100,35 +1100,35 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DsflgYyGi</t>
+          <t>CVwiKw</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>NkBcs</t>
+          <t>ucpeVPN</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1136,17 +1136,17 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ADGVlI</t>
+          <t>gezZ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1154,17 +1154,17 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VfJC</t>
+          <t>UtSmt</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1172,17 +1172,17 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>gvTCruqV</t>
+          <t>BdrBJCwl</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1190,17 +1190,17 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>isqsNGxE</t>
+          <t>ewglhN</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1214,11 +1214,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TbFCzIo</t>
+          <t>YFK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1226,21 +1226,21 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>tAqQOVt</t>
+          <t>MlCFTiYf</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D45" t="n">
@@ -1250,11 +1250,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>UBYAGcBZ</t>
+          <t>EzDmRcoWw</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1262,35 +1262,35 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>dFkc</t>
+          <t>abHX</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kGcc</t>
+          <t>VOhxpiZ</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1298,21 +1298,21 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>fHCDC</t>
+          <t>fFYcatqL</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1322,11 +1322,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sPBbLxxz</t>
+          <t>CWt</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1340,11 +1340,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ipiI</t>
+          <t>jogMKVCZKw</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1352,17 +1352,17 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>QHmxjiEjYl</t>
+          <t>drwWteTYa</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1370,17 +1370,17 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xhQk</t>
+          <t>ImeRDPonbd</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1394,11 +1394,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ULR</t>
+          <t>FLgEvmigxA</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1412,11 +1412,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FWD</t>
+          <t>FzpWfTyOS</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1424,35 +1424,35 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BulINjvadA</t>
+          <t>DXIUPBR</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>DeVFWswM</t>
+          <t>lfMyYd</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1460,17 +1460,17 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NXhc</t>
+          <t>sBbnnzESM</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1478,35 +1478,35 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kQKvuecIc</t>
+          <t>TyeDu</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>yXWyMCG</t>
+          <t>offlgN</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1514,17 +1514,17 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>OSQINLHKYv</t>
+          <t>NracQNs</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1532,39 +1532,39 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vLFb</t>
+          <t>InWieSIG</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KTyMoXj</t>
+          <t>NtwH</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D63" t="n">
@@ -1574,15 +1574,15 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JgZnDFaV</t>
+          <t>iydrVX</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1592,47 +1592,47 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ScObg</t>
+          <t>LlxAs</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Xvt</t>
+          <t>sIUVNVDc</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>YZrkK</t>
+          <t>UNKYYXh</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1640,35 +1640,35 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>fGMTNKQGG</t>
+          <t>PaZKiHhMY</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>nDt</t>
+          <t>mxg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1676,53 +1676,53 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>kis</t>
+          <t>FVpCwFnb</t>
         </is>
       </c>
       <c r="B70" t="n">
+        <v>54</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>3</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>qaclrK</t>
+          <t>bkxlNQcT</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>OOYLJRq</t>
+          <t>ojPTa</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1730,35 +1730,35 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EENkgTsQXy</t>
+          <t>XLFnQWa</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>JwczWb</t>
+          <t>FLmbbehueP</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1772,29 +1772,29 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>meSu</t>
+          <t>oHy</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>YKqHSpZ</t>
+          <t>vtaOradX</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1802,17 +1802,17 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>RsYgGLS</t>
+          <t>cYWdaAWV</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1820,35 +1820,35 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mBMXMM</t>
+          <t>HMsrobozUq</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>LMUpxo</t>
+          <t>SbHWWxcGik</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1862,15 +1862,15 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>rmEvW</t>
+          <t>BsTW</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1880,11 +1880,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SyCiJPR</t>
+          <t>gGMyhfvIf</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>10</v>
+        <v>75</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1892,17 +1892,17 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dqNb</t>
+          <t>QEjxksU</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1910,35 +1910,35 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>qqtr</t>
+          <t>QfhXwFx</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>jGv</t>
+          <t>aiXiroxH</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1946,21 +1946,21 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GqFO</t>
+          <t>oBthSbVBi</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -1970,11 +1970,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HmtEkJTNI</t>
+          <t>fwPi</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1988,11 +1988,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ohxBqwqT</t>
+          <t>UWBFJHF</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -2000,35 +2000,35 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FKOtM</t>
+          <t>LUe</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BOgmLqK</t>
+          <t>tIJkTfaEt</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2036,35 +2036,35 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>jHH</t>
+          <t>OGEHRUHJlZ</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>nMnHBkX</t>
+          <t>LOkEmkffl</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2072,39 +2072,39 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>cwtcIkLXHn</t>
+          <t>EyJGjH</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>URjAM</t>
+          <t>RGRkpLtauZ</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -2114,11 +2114,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ukiaelxfJ</t>
+          <t>RaLDTIWu</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -2126,35 +2126,35 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>XYVzsSDlC</t>
+          <t>EQjjN</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>jEDMjUI</t>
+          <t>scsNBuEuX</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2162,17 +2162,17 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>VDynHCC</t>
+          <t>weiFsGS</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -2186,11 +2186,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MUqaFxRwk</t>
+          <t>LMXjF</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -2198,35 +2198,35 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zWmpF</t>
+          <t>xxeLZ</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ANVPc</t>
+          <t>QZH</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -2234,21 +2234,21 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>LfkpzsE</t>
+          <t>mzvQ</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D101" t="n">

--- a/form_filler/form_info.xlsx
+++ b/form_filler/form_info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,15 +458,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>PbiE</t>
+          <t>Kenny Wheeler</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -476,11 +476,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SLgYHAD</t>
+          <t>Hubert Burke</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -494,29 +494,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YwDm</t>
+          <t>Floyd Harrington</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YDpsXAFY</t>
+          <t>Noah Summers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99</v>
+        <v>29</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -524,53 +524,53 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cezWpOUjV</t>
+          <t>Angelo Obrien</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KWTsnXNAYR</t>
+          <t>Valerie Price</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OPIsfjvPu</t>
+          <t>Carlton Estrada</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -578,89 +578,89 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RuKT</t>
+          <t>Kent Foster</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NmO</t>
+          <t>Betty Carpenter</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>XAEGaI</t>
+          <t>Nina Welch</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>87</v>
+        <v>33</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GGy</t>
+          <t>Veronica King</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JdJhFG</t>
+          <t>Gerardo Jenkins</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -668,17 +668,17 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KhfTuFSCy</t>
+          <t>Tina Mendoza</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -686,17 +686,17 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dslOZgSIC</t>
+          <t>Percy Nguyen</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -704,17 +704,17 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TcGutf</t>
+          <t>Shawn Bryan</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -728,29 +728,29 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mPHbK</t>
+          <t>Ralph Rodriguez</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SmlG</t>
+          <t>Shaun Holt</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -758,35 +758,35 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ByjUbKva</t>
+          <t>Harry Norman</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lhecM</t>
+          <t>Luther Lawson</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -794,21 +794,21 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ymETAov</t>
+          <t>Darrell Richards</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -818,33 +818,33 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>WNHVO</t>
+          <t>Adrienne Banks</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>xCZWqyuRvo</t>
+          <t>Julio Mcgee</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -854,11 +854,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dFiGUDa</t>
+          <t>Chad Ramirez</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -866,17 +866,17 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>YDkikC</t>
+          <t>Andy Blair</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -884,17 +884,17 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>QzrIhwn</t>
+          <t>Emilio Hogan</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -902,17 +902,17 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>aYXglHRP</t>
+          <t>Lynn Terry</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -926,47 +926,47 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IZWOfAK</t>
+          <t>Michele Mccormick</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tvkCzwe</t>
+          <t>Sharon Valdez</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>iZsGtDN</t>
+          <t>Charlene Barnett</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -974,35 +974,35 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>juyN</t>
+          <t>Luis Frazier</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TJEIZawOfb</t>
+          <t>Kim Quinn</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1016,11 +1016,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>JCppoqay</t>
+          <t>Jeremiah Casey</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1034,11 +1034,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>QAiBcaVzRh</t>
+          <t>Kelli Fitzgerald</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1046,53 +1046,53 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GdRfPOv</t>
+          <t>Agnes Reed</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>jQZncXpQsE</t>
+          <t>Isaac Kennedy</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IQtDOh</t>
+          <t>Doyle Ruiz</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1106,47 +1106,47 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CVwiKw</t>
+          <t>Carole Hernandez</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ucpeVPN</t>
+          <t>Timmy Robertson</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>gezZ</t>
+          <t>Jim Barnes</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1160,11 +1160,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UtSmt</t>
+          <t>Allen Newman</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1178,15 +1178,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BdrBJCwl</t>
+          <t>Ignacio Hale</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1196,11 +1196,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ewglhN</t>
+          <t>Lisa Mack</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1214,15 +1214,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>YFK</t>
+          <t>Juana Burgess</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1232,47 +1232,47 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MlCFTiYf</t>
+          <t>Katrina Green</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EzDmRcoWw</t>
+          <t>Rick Murphy</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>abHX</t>
+          <t>Julie Cortez</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1280,17 +1280,17 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>VOhxpiZ</t>
+          <t>Latoya Clark</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1298,21 +1298,21 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>fFYcatqL</t>
+          <t>Violet Walsh</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D49" t="n">
@@ -1322,11 +1322,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CWt</t>
+          <t>Jane Davis</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1334,39 +1334,39 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>jogMKVCZKw</t>
+          <t>Ethel Morrison</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>drwWteTYa</t>
+          <t>Dave Gray</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>86</v>
+        <v>10</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -1376,29 +1376,29 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ImeRDPonbd</t>
+          <t>Carmen Gregory</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>FLgEvmigxA</t>
+          <t>Clint Nelson</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1406,17 +1406,17 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FzpWfTyOS</t>
+          <t>Alex Bass</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1430,29 +1430,29 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DXIUPBR</t>
+          <t>Jasmine Payne</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>lfMyYd</t>
+          <t>Jonathon Owen</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1460,17 +1460,17 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>sBbnnzESM</t>
+          <t>Donna West</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1478,17 +1478,17 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TyeDu</t>
+          <t>Robyn Reid</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1496,17 +1496,17 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>offlgN</t>
+          <t>Clayton Young</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1514,21 +1514,21 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NracQNs</t>
+          <t>Brendan Ryan</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D61" t="n">
@@ -1538,29 +1538,29 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>InWieSIG</t>
+          <t>Lindsay Tran</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>NtwH</t>
+          <t>Rodolfo Garcia</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1574,15 +1574,15 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>iydrVX</t>
+          <t>Pam Kelly</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D64" t="n">
@@ -1592,11 +1592,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>LlxAs</t>
+          <t>Seth Warren</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1604,35 +1604,35 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>sIUVNVDc</t>
+          <t>Taylor Fuller</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>UNKYYXh</t>
+          <t>Kristopher Fowler</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1640,71 +1640,71 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PaZKiHhMY</t>
+          <t>Don Rogers</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>mxg</t>
+          <t>Lillian Phelps</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>FVpCwFnb</t>
+          <t>Sammy Guzman</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>bkxlNQcT</t>
+          <t>Adrian Logan</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1712,17 +1712,17 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ojPTa</t>
+          <t>Colin Moody</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1736,11 +1736,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>XLFnQWa</t>
+          <t>Tomas Peterson</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1754,15 +1754,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>FLmbbehueP</t>
+          <t>Tara Moreno</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -1772,11 +1772,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>oHy</t>
+          <t>Tracey Rios</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1784,17 +1784,17 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vtaOradX</t>
+          <t>Dixie Williams</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1808,47 +1808,47 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>cYWdaAWV</t>
+          <t>Paul Sanchez</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HMsrobozUq</t>
+          <t>Jessie Schwartz</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SbHWWxcGik</t>
+          <t>Freddie Newton</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1856,21 +1856,21 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BsTW</t>
+          <t>Theodore Bush</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -1880,11 +1880,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>gGMyhfvIf</t>
+          <t>Timothy Higgins</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1898,15 +1898,15 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>QEjxksU</t>
+          <t>Thomas Patterson</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -1916,11 +1916,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>QfhXwFx</t>
+          <t>Shelly Matthews</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1928,53 +1928,53 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>aiXiroxH</t>
+          <t>Alexis Dean</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>oBthSbVBi</t>
+          <t>Elvira Love</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>fwPi</t>
+          <t>Wilbur Webb</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1982,53 +1982,53 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>UWBFJHF</t>
+          <t>Beatrice Brock</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LUe</t>
+          <t>Tami Buchanan</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tIJkTfaEt</t>
+          <t>Gretchen Abbott</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -2036,17 +2036,17 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>OGEHRUHJlZ</t>
+          <t>Lyle Marsh</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -2054,17 +2054,17 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>LOkEmkffl</t>
+          <t>Bob Weber</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -2078,11 +2078,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EyJGjH</t>
+          <t>Jay Hoffman</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -2090,53 +2090,53 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RGRkpLtauZ</t>
+          <t>Patricia Gross</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>RaLDTIWu</t>
+          <t>Myrtle Bowers</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EQjjN</t>
+          <t>Warren Sparks</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -2144,17 +2144,17 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>scsNBuEuX</t>
+          <t>Tammy Santos</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -2162,39 +2162,39 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>weiFsGS</t>
+          <t>Mike Cobb</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LMXjF</t>
+          <t>Erika Jones</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D98" t="n">
@@ -2204,33 +2204,33 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>xxeLZ</t>
+          <t>Iris Knight</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>QZH</t>
+          <t>Blake Alvarez</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D100" t="n">
@@ -2240,11 +2240,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>mzvQ</t>
+          <t>Ervin Gonzalez</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/form_filler/form_info.xlsx
+++ b/form_filler/form_info.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,33 +458,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>lHcSrEOo</t>
+          <t>Eleanor Mcdaniel</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jnn</t>
+          <t>Domingo Freeman</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -494,29 +494,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zSkxeqp</t>
+          <t>Jeanette Erickson</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>nsz</t>
+          <t>Seth Hubbard</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -524,17 +524,17 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mdTaehat</t>
+          <t>Luther Graves</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -542,35 +542,35 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANVrddzQP</t>
+          <t>Earnest Simpson</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xSB</t>
+          <t>Christy Logan</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -578,17 +578,17 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AJAjy</t>
+          <t>Greg Guerrero</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -602,15 +602,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GiYXUFRQe</t>
+          <t>Sylvia Bowers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -620,19 +620,1639 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>hhSmkgkdP</t>
+          <t>Derrick Mason</t>
         </is>
       </c>
       <c r="B11" t="n">
+        <v>67</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Kristi Howell</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>94</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chris Wright</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Olivia Lee</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>39</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Orville Gibbs</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Kelly Moss</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>49</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Myra Pittman</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>35</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Leonard Russell</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nettie Ingram</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>52</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Loren Daniel</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>49</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guillermo Walton</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>76</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Karl Hampton</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Doug Yates</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>37</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kate Saunders</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>57</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Edward Robinson</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>17</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Ruben Chavez</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>67</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Ross Brewer</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>52</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Edgar Moody</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>79</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Holly Young</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>44</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Daisy Norton</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>52</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Javier Lowe</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>61</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Marvin Rivera</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>52</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Darrel Padilla</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>74</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Willie Parks</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>David Wilkerson</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>91</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Don Little</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>73</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Beverly Marsh</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Isabel Clarke</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>28</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Lillian Glover</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>50</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Paulette Cortez</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>18</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Lorraine Huff</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sergio Jensen</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>84</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Ella Parker</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>84</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>John Morgan</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>94</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Erma James</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>59</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Darin Mccoy</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>7</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Elsa Perry</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>38</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Miguel Davidson</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>42</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Carlton Harmon</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Cesar Jackson</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>39</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kristy Coleman</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>98</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Herbert Walsh</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hope Doyle</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>54</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Toby Pena</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>17</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Barry Shelton</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>29</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Gustavo Bennett</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>27</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Evelyn Ferguson</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>53</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jan Norris</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>17</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Bradley Cobb</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>83</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Moses Klein</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>81</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Shaun Steele</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>99</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Omar Francis</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>14</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Alicia Watson</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Shannon Duncan</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
         <v>15</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Lawrence Ortiz</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>81</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cheryl Kennedy</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>100</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Douglas Snyder</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>62</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Barbara Phillips</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>79</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gilbert Mathis</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>73</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Nathan Diaz</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>92</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Wade Matthews</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>42</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Owen Spencer</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>22</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Leah Bishop</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>49</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Tricia Dixon</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>12</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Roberta Smith</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>43</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Wendell Burgess</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>41</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Simon Bradley</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>52</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Mathew Fox</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>84</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Mitchell Hughes</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>85</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Darrin Roberts</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>41</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Damon Carter</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>14</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Norman Pope</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>32</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Melody Carroll</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>94</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Cynthia Castro</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>25</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Merle Hawkins</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>81</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Franklin Townsend</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>74</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Marjorie Salazar</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>26</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Lindsey Moran</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>89</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Eduardo Flowers</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>12</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Mona Bowen</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>48</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sophie Johnson</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>43</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Dominick Terry</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>27</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Clyde Thornton</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>97</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Emma Clark</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>38</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Ernesto Underwood</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>31</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Daryl Sullivan</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>74</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Doyle Leonard</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>42</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Lynn Curry</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>24</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sharon Wagner</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>90</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Kara Lawrence</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>3</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Randal Johnston</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>44</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
